--- a/ProjectCode_Testcase_Template_v2.2.xlsx
+++ b/ProjectCode_Testcase_Template_v2.2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\----iostream----\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{28650CE0-F12D-4598-B2C3-CB153AD82BB4}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{9271D13A-C0FA-45C1-A01E-512FC6F0597B}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-15" yWindow="-15" windowWidth="15480" windowHeight="4785" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="105">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -215,9 +215,6 @@
   </si>
   <si>
     <t>AnhDV</t>
-  </si>
-  <si>
-    <t>TienND</t>
   </si>
   <si>
     <t>2.</t>
@@ -244,9 +241,6 @@
 </t>
   </si>
   <si>
-    <t>BUG213</t>
-  </si>
-  <si>
     <t>1.1-2</t>
   </si>
   <si>
@@ -370,12 +364,6 @@
   </si>
   <si>
     <t>21/10/2018</t>
-  </si>
-  <si>
-    <t>23/08/2018</t>
-  </si>
-  <si>
-    <t>20/08/2018</t>
   </si>
   <si>
     <t>23/10/2018</t>
@@ -2836,8 +2824,8 @@
   </sheetPr>
   <dimension ref="A1:K126"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A66" zoomScale="115" zoomScaleNormal="130" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="115" zoomScaleNormal="130" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <selection activeCell="J61" sqref="J61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="10.5"/>
@@ -3016,11 +3004,11 @@
         <v>1</v>
       </c>
       <c r="B9" s="159" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C9" s="160"/>
       <c r="D9" s="151" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E9" s="152"/>
       <c r="F9" s="120" t="s">
@@ -3066,7 +3054,7 @@
       <c r="F11" s="122"/>
       <c r="G11" s="123"/>
       <c r="H11" s="50" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="I11" s="50"/>
       <c r="J11" s="48"/>
@@ -3102,7 +3090,7 @@
       <c r="F13" s="124"/>
       <c r="G13" s="125"/>
       <c r="H13" s="53" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="I13" s="53"/>
       <c r="J13" s="54"/>
@@ -3140,11 +3128,11 @@
         <v>2</v>
       </c>
       <c r="B15" s="159" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C15" s="160"/>
       <c r="D15" s="151" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E15" s="152"/>
       <c r="F15" s="129" t="s">
@@ -3157,7 +3145,7 @@
       <c r="I15" s="150"/>
       <c r="J15" s="48"/>
       <c r="K15" s="146" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="10.5" customHeight="1">
@@ -3183,7 +3171,7 @@
     </row>
     <row r="17" spans="1:11" ht="10.5" customHeight="1">
       <c r="A17" s="49" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B17" s="161"/>
       <c r="C17" s="162"/>
@@ -3192,7 +3180,7 @@
       <c r="F17" s="131"/>
       <c r="G17" s="132"/>
       <c r="H17" s="50" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="I17" s="50"/>
       <c r="J17" s="48"/>
@@ -3228,7 +3216,7 @@
       <c r="F19" s="133"/>
       <c r="G19" s="134"/>
       <c r="H19" s="53" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="I19" s="53"/>
       <c r="J19" s="54"/>
@@ -3266,11 +3254,11 @@
         <v>3</v>
       </c>
       <c r="B21" s="159" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C21" s="160"/>
       <c r="D21" s="151" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E21" s="152"/>
       <c r="F21" s="129" t="s">
@@ -3283,7 +3271,7 @@
       <c r="I21" s="150"/>
       <c r="J21" s="48"/>
       <c r="K21" s="146" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="22" spans="1:11" ht="10.5" customHeight="1">
@@ -3309,7 +3297,7 @@
     </row>
     <row r="23" spans="1:11" ht="10.5" customHeight="1">
       <c r="A23" s="49" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B23" s="161"/>
       <c r="C23" s="162"/>
@@ -3318,7 +3306,7 @@
       <c r="F23" s="131"/>
       <c r="G23" s="132"/>
       <c r="H23" s="50" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="I23" s="50"/>
       <c r="J23" s="48"/>
@@ -3354,7 +3342,7 @@
       <c r="F25" s="133"/>
       <c r="G25" s="134"/>
       <c r="H25" s="53" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="I25" s="53"/>
       <c r="J25" s="54"/>
@@ -3392,15 +3380,15 @@
         <v>4</v>
       </c>
       <c r="B27" s="159" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C27" s="160"/>
       <c r="D27" s="151" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E27" s="152"/>
       <c r="F27" s="129" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="G27" s="130"/>
       <c r="H27" s="149" t="s">
@@ -3411,7 +3399,7 @@
         <v>53</v>
       </c>
       <c r="K27" s="146" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="28" spans="1:11" ht="10.5" customHeight="1">
@@ -3437,7 +3425,7 @@
     </row>
     <row r="29" spans="1:11" ht="10.5" customHeight="1">
       <c r="A29" s="49" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B29" s="161"/>
       <c r="C29" s="162"/>
@@ -3446,13 +3434,13 @@
       <c r="F29" s="131"/>
       <c r="G29" s="132"/>
       <c r="H29" s="50" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="I29" s="50" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="J29" s="48" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="K29" s="147"/>
     </row>
@@ -3486,20 +3474,20 @@
       <c r="F31" s="124"/>
       <c r="G31" s="125"/>
       <c r="H31" s="50" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="I31" s="50" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="J31" s="48"/>
       <c r="K31" s="147"/>
     </row>
     <row r="32" spans="1:11" ht="10.5" customHeight="1">
       <c r="A32" s="99" t="s">
+        <v>55</v>
+      </c>
+      <c r="B32" s="143" t="s">
         <v>56</v>
-      </c>
-      <c r="B32" s="143" t="s">
-        <v>57</v>
       </c>
       <c r="C32" s="143"/>
       <c r="D32" s="138"/>
@@ -3513,10 +3501,10 @@
     </row>
     <row r="33" spans="1:11" ht="10.5" customHeight="1">
       <c r="A33" s="100" t="s">
+        <v>57</v>
+      </c>
+      <c r="B33" s="165" t="s">
         <v>58</v>
-      </c>
-      <c r="B33" s="165" t="s">
-        <v>59</v>
       </c>
       <c r="C33" s="165"/>
       <c r="D33" s="166"/>
@@ -3560,11 +3548,11 @@
         <v>5</v>
       </c>
       <c r="B35" s="159" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C35" s="160"/>
       <c r="D35" s="151" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E35" s="152"/>
       <c r="F35" s="151" t="s">
@@ -3572,12 +3560,10 @@
       </c>
       <c r="G35" s="152"/>
       <c r="H35" s="157" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="I35" s="158"/>
-      <c r="J35" s="52" t="s">
-        <v>63</v>
-      </c>
+      <c r="J35" s="52"/>
       <c r="K35" s="146"/>
     </row>
     <row r="36" spans="1:11" ht="10.5" customHeight="1">
@@ -3603,7 +3589,7 @@
     </row>
     <row r="37" spans="1:11" ht="10.5" customHeight="1">
       <c r="A37" s="49" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B37" s="161"/>
       <c r="C37" s="162"/>
@@ -3612,14 +3598,12 @@
       <c r="F37" s="153"/>
       <c r="G37" s="154"/>
       <c r="H37" s="50" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="I37" s="50" t="s">
-        <v>70</v>
-      </c>
-      <c r="J37" s="48" t="s">
-        <v>55</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="J37" s="48"/>
       <c r="K37" s="147"/>
     </row>
     <row r="38" spans="1:11" ht="10.5" customHeight="1">
@@ -3652,10 +3636,10 @@
       <c r="F39" s="155"/>
       <c r="G39" s="156"/>
       <c r="H39" s="50" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="I39" s="50" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="J39" s="48"/>
       <c r="K39" s="148"/>
@@ -3692,24 +3676,22 @@
         <v>6</v>
       </c>
       <c r="B41" s="159" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C41" s="160"/>
       <c r="D41" s="151" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E41" s="152"/>
       <c r="F41" s="151" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G41" s="152"/>
       <c r="H41" s="157" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="I41" s="158"/>
-      <c r="J41" s="52" t="s">
-        <v>63</v>
-      </c>
+      <c r="J41" s="52"/>
       <c r="K41" s="146"/>
     </row>
     <row r="42" spans="1:11" ht="10.5" customHeight="1">
@@ -3735,7 +3717,7 @@
     </row>
     <row r="43" spans="1:11" ht="10.5" customHeight="1">
       <c r="A43" s="49" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B43" s="161"/>
       <c r="C43" s="162"/>
@@ -3749,9 +3731,7 @@
       <c r="I43" s="50" t="s">
         <v>54</v>
       </c>
-      <c r="J43" s="48" t="s">
-        <v>55</v>
-      </c>
+      <c r="J43" s="48"/>
       <c r="K43" s="147"/>
     </row>
     <row r="44" spans="1:11" ht="10.5" customHeight="1">
@@ -3784,10 +3764,10 @@
       <c r="F45" s="155"/>
       <c r="G45" s="156"/>
       <c r="H45" s="50" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="I45" s="50" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="J45" s="48"/>
       <c r="K45" s="148"/>
@@ -3824,11 +3804,11 @@
         <v>7</v>
       </c>
       <c r="B47" s="159" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C47" s="160"/>
       <c r="D47" s="151" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E47" s="152"/>
       <c r="F47" s="129" t="s">
@@ -3840,10 +3820,10 @@
       </c>
       <c r="I47" s="158"/>
       <c r="J47" s="52" t="s">
+        <v>74</v>
+      </c>
+      <c r="K47" s="146" t="s">
         <v>76</v>
-      </c>
-      <c r="K47" s="146" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="48" spans="1:11" ht="10.5" customHeight="1">
@@ -3869,7 +3849,7 @@
     </row>
     <row r="49" spans="1:11" ht="10.5" customHeight="1">
       <c r="A49" s="49" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B49" s="161"/>
       <c r="C49" s="162"/>
@@ -3878,13 +3858,13 @@
       <c r="F49" s="131"/>
       <c r="G49" s="132"/>
       <c r="H49" s="50" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="I49" s="50" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="J49" s="48" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="K49" s="147"/>
     </row>
@@ -3918,10 +3898,10 @@
       <c r="F51" s="133"/>
       <c r="G51" s="134"/>
       <c r="H51" s="50" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="I51" s="50" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="J51" s="48"/>
       <c r="K51" s="147"/>
@@ -3958,24 +3938,22 @@
         <v>8</v>
       </c>
       <c r="B53" s="159" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C53" s="160"/>
       <c r="D53" s="151" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E53" s="152"/>
       <c r="F53" s="151" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="G53" s="152"/>
       <c r="H53" s="157" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="I53" s="158"/>
-      <c r="J53" s="52" t="s">
-        <v>63</v>
-      </c>
+      <c r="J53" s="52"/>
       <c r="K53" s="146"/>
     </row>
     <row r="54" spans="1:11" ht="10.5" customHeight="1">
@@ -4001,7 +3979,7 @@
     </row>
     <row r="55" spans="1:11" ht="10.5" customHeight="1">
       <c r="A55" s="49" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B55" s="161"/>
       <c r="C55" s="162"/>
@@ -4010,14 +3988,12 @@
       <c r="F55" s="153"/>
       <c r="G55" s="154"/>
       <c r="H55" s="50" t="s">
-        <v>48</v>
+        <v>65</v>
       </c>
       <c r="I55" s="50" t="s">
-        <v>54</v>
-      </c>
-      <c r="J55" s="48" t="s">
-        <v>55</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="J55" s="48"/>
       <c r="K55" s="147"/>
     </row>
     <row r="56" spans="1:11" ht="10.5" customHeight="1">
@@ -4050,10 +4026,10 @@
       <c r="F57" s="155"/>
       <c r="G57" s="156"/>
       <c r="H57" s="50" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="I57" s="50" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="J57" s="48"/>
       <c r="K57" s="148"/>
@@ -4090,11 +4066,11 @@
         <v>9</v>
       </c>
       <c r="B59" s="159" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C59" s="160"/>
       <c r="D59" s="151" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E59" s="152"/>
       <c r="F59" s="151" t="s">
@@ -4102,12 +4078,10 @@
       </c>
       <c r="G59" s="152"/>
       <c r="H59" s="157" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="I59" s="158"/>
-      <c r="J59" s="52" t="s">
-        <v>63</v>
-      </c>
+      <c r="J59" s="52"/>
       <c r="K59" s="146"/>
     </row>
     <row r="60" spans="1:11" ht="10.5" customHeight="1">
@@ -4133,7 +4107,7 @@
     </row>
     <row r="61" spans="1:11" ht="10.5" customHeight="1">
       <c r="A61" s="49" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B61" s="161"/>
       <c r="C61" s="162"/>
@@ -4142,14 +4116,12 @@
       <c r="F61" s="153"/>
       <c r="G61" s="154"/>
       <c r="H61" s="50" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="I61" s="50" t="s">
-        <v>70</v>
-      </c>
-      <c r="J61" s="48" t="s">
-        <v>55</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="J61" s="48"/>
       <c r="K61" s="147"/>
     </row>
     <row r="62" spans="1:11" ht="10.5" customHeight="1">
@@ -4182,10 +4154,10 @@
       <c r="F63" s="155"/>
       <c r="G63" s="156"/>
       <c r="H63" s="50" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="I63" s="50" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="J63" s="48"/>
       <c r="K63" s="148"/>
@@ -4222,11 +4194,11 @@
         <v>10</v>
       </c>
       <c r="B65" s="159" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C65" s="160"/>
       <c r="D65" s="151" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E65" s="152"/>
       <c r="F65" s="151" t="s">
@@ -4234,12 +4206,10 @@
       </c>
       <c r="G65" s="152"/>
       <c r="H65" s="157" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="I65" s="158"/>
-      <c r="J65" s="52" t="s">
-        <v>63</v>
-      </c>
+      <c r="J65" s="52"/>
       <c r="K65" s="146"/>
     </row>
     <row r="66" spans="1:11" ht="10.5" customHeight="1">
@@ -4265,7 +4235,7 @@
     </row>
     <row r="67" spans="1:11" ht="10.5" customHeight="1">
       <c r="A67" s="49" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B67" s="161"/>
       <c r="C67" s="162"/>
@@ -4274,14 +4244,12 @@
       <c r="F67" s="153"/>
       <c r="G67" s="154"/>
       <c r="H67" s="50" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="I67" s="50" t="s">
-        <v>70</v>
-      </c>
-      <c r="J67" s="48" t="s">
-        <v>55</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="J67" s="48"/>
       <c r="K67" s="147"/>
     </row>
     <row r="68" spans="1:11" ht="10.5" customHeight="1">
@@ -4314,10 +4282,10 @@
       <c r="F69" s="155"/>
       <c r="G69" s="156"/>
       <c r="H69" s="50" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="I69" s="50" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="J69" s="48"/>
       <c r="K69" s="148"/>
